--- a/skelton/媒体スケルトン.xlsx
+++ b/skelton/媒体スケルトン.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>媒体コード</t>
   </si>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>2015/06/26</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -527,11 +523,8 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
       <c r="H3">
         <v>100</v>
